--- a/easyGantt.xlsx
+++ b/easyGantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galja\EasyGantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DD5CC8-891F-4A28-BA45-727412B00B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EFDEA8-BE35-4A09-8D41-50B0CC1183A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="683" windowWidth="28995" windowHeight="15675" xr2:uid="{DE6DC475-CBA2-4AB6-A0D5-110579649B93}"/>
+    <workbookView xWindow="-53" yWindow="-53" windowWidth="25706" windowHeight="13786" xr2:uid="{DE6DC475-CBA2-4AB6-A0D5-110579649B93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -419,16 +419,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2224089</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>68061</xdr:rowOff>
+      <xdr:rowOff>67002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>5293</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57152</xdr:rowOff>
+      <xdr:colOff>13761</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>77308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -451,8 +451,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10729914" y="68061"/>
-          <a:ext cx="7091892" cy="3065666"/>
+          <a:off x="7010400" y="67002"/>
+          <a:ext cx="12172424" cy="5258581"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -825,7 +825,7 @@
   <dimension ref="A1:Y86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD38" sqref="AD38"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -834,11 +834,10 @@
     <col min="2" max="2" width="27.9375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.17578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.8203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.87890625" customWidth="1"/>
-    <col min="8" max="8" width="9.87890625" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="9.87890625" customWidth="1"/>
     <col min="9" max="9" width="52.76171875" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="75.76171875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.9375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.9375" customWidth="1"/>
     <col min="13" max="13" width="75.76171875" bestFit="1" customWidth="1"/>
     <col min="15" max="22" width="8.9375" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="23.87890625" hidden="1" customWidth="1"/>
@@ -1120,8 +1119,12 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
@@ -1165,18 +1168,11 @@
         <v>Onboarding</v>
       </c>
       <c r="W6" t="str">
-        <f>"BackGroundColor " &amp;  B10</f>
+        <f>"BackGroundColor " &amp;  B11</f>
         <v>BackGroundColor #ffe6e6</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="A7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="5">
-        <f>MIN(easyGantt[start])</f>
-        <v>45615</v>
-      </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
@@ -1225,11 +1221,11 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5">
-        <f>MAX(easyGantt[[start]:[end]])</f>
-        <v>46071</v>
+        <f>MIN(easyGantt[start])</f>
+        <v>45615</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -1278,8 +1274,13 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="5">
+        <f>MAX(easyGantt[[start]:[end]])</f>
+        <v>46071</v>
+      </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
@@ -1327,12 +1328,8 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
       <c r="D10" t="s">
         <v>59</v>
       </c>
@@ -1363,7 +1360,7 @@
 "",
 IF(easyGantt[[#This Row],[type2]]="increment","["&amp;easyGantt[[#This Row],[display]]&amp;"] is "&amp;TEXT(IF(easyGantt[[#This Row],[end]]="","",IF(easyGantt[[#This Row],[end]]&lt;=TODAY(),1,IF(easyGantt[[#This Row],[start]]&gt;TODAY(),0,(TODAY()-easyGantt[[#This Row],[start]])/(easyGantt[[#This Row],[end]]-easyGantt[[#This Row],[start]])))),"0%")&amp;" complete",
 IF(easyGantt[[#This Row],[type2]]="sprint","["&amp;easyGantt[[#This Row],[display]]&amp;"] is "&amp;TEXT(IF(easyGantt[[#This Row],[end]]="","",IF(easyGantt[[#This Row],[end]]&lt;=TODAY(),1,IF(easyGantt[[#This Row],[start]]&gt;TODAY(),0,(TODAY()-easyGantt[[#This Row],[start]])/(easyGantt[[#This Row],[end]]-easyGantt[[#This Row],[start]])))),"0%")&amp;" complete","")))</f>
-        <v>[Prototype] is 16% complete</v>
+        <v>[Prototype] is 18% complete</v>
       </c>
       <c r="K10" t="str">
         <f>IF(easyGantt[[#This Row],[end]]="","event",IF(easyGantt[[#This Row],[type]]="increment","increment","sprint"))</f>
@@ -1381,16 +1378,16 @@
         <v>Markdown</v>
       </c>
       <c r="W10" t="str">
-        <f>"BackGroundColor "&amp;B11</f>
+        <f>"BackGroundColor "&amp;B12</f>
         <v>BackGroundColor LightGray</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A11" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -1440,8 +1437,12 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
@@ -1469,7 +1470,7 @@
 "",
 IF(easyGantt[[#This Row],[type2]]="increment","["&amp;easyGantt[[#This Row],[display]]&amp;"] is "&amp;TEXT(IF(easyGantt[[#This Row],[end]]="","",IF(easyGantt[[#This Row],[end]]&lt;=TODAY(),1,IF(easyGantt[[#This Row],[start]]&gt;TODAY(),0,(TODAY()-easyGantt[[#This Row],[start]])/(easyGantt[[#This Row],[end]]-easyGantt[[#This Row],[start]])))),"0%")&amp;" complete",
 IF(easyGantt[[#This Row],[type2]]="sprint","["&amp;easyGantt[[#This Row],[display]]&amp;"] is "&amp;TEXT(IF(easyGantt[[#This Row],[end]]="","",IF(easyGantt[[#This Row],[end]]&lt;=TODAY(),1,IF(easyGantt[[#This Row],[start]]&gt;TODAY(),0,(TODAY()-easyGantt[[#This Row],[start]])/(easyGantt[[#This Row],[end]]-easyGantt[[#This Row],[start]])))),"0%")&amp;" complete","")))</f>
-        <v>[Sprint 07: Renderer R&amp;D] is 7% complete</v>
+        <v>[Sprint 07: Renderer R&amp;D] is 29% complete</v>
       </c>
       <c r="K12" t="str">
         <f>IF(easyGantt[[#This Row],[end]]="","event",IF(easyGantt[[#This Row],[type]]="increment","increment","sprint"))</f>
@@ -1491,12 +1492,6 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="A13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="E13" t="s">
         <v>31</v>
       </c>
@@ -1687,7 +1682,7 @@
         <v>Platform Metrics &amp; Alerting</v>
       </c>
       <c r="W16" t="str">
-        <f>$B$13</f>
+        <f>$B$6</f>
         <v>projectscale monthly zoom 3</v>
       </c>
     </row>
@@ -2031,7 +2026,7 @@
         <v>Payment Processing</v>
       </c>
       <c r="W23" t="str">
-        <f>"Project starts "&amp;TEXT(B7,"YYYY-MM-DD")</f>
+        <f>"Project starts "&amp;TEXT(B8,"YYYY-MM-DD")</f>
         <v>Project starts 2024-11-19</v>
       </c>
     </row>
@@ -2808,7 +2803,7 @@
     <row r="60" spans="13:15" x14ac:dyDescent="0.5">
       <c r="M60" t="str">
         <f ca="1"/>
-        <v>[Prototype] is 16% complete</v>
+        <v>[Prototype] is 18% complete</v>
       </c>
       <c r="O60" t="str">
         <f t="shared" si="4"/>
@@ -2828,7 +2823,7 @@
     <row r="62" spans="13:15" x14ac:dyDescent="0.5">
       <c r="M62" t="str">
         <f ca="1"/>
-        <v>[Sprint 07: Renderer R&amp;D] is 7% complete</v>
+        <v>[Sprint 07: Renderer R&amp;D] is 29% complete</v>
       </c>
       <c r="O62" t="str">
         <f t="shared" si="4"/>
@@ -2861,7 +2856,7 @@
         <v>[Sprint 10: PlantUML &amp; Latex] is 0% complete</v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" ref="O65:O96" si="5">IF(OR(B$2="",P65=""),"","Sprint "&amp;TEXT(ROW()+B$2-1,"00"))</f>
+        <f t="shared" ref="O65:O80" si="5">IF(OR(B$2="",P65=""),"","Sprint "&amp;TEXT(ROW()+B$2-1,"00"))</f>
         <v/>
       </c>
     </row>
